--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1035.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1035.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.144483432111734</v>
+        <v>1.04358184337616</v>
       </c>
       <c r="B1">
-        <v>3.255958996082439</v>
+        <v>0.9962736368179321</v>
       </c>
       <c r="C1">
-        <v>2.741415756315665</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.228955444745297</v>
+        <v>2.067568302154541</v>
       </c>
       <c r="E1">
-        <v>1.388223574785691</v>
+        <v>1.035061359405518</v>
       </c>
     </row>
   </sheetData>
